--- a/biology/Botanique/Lis_des_Pyrénées/Lis_des_Pyrénées.xlsx
+++ b/biology/Botanique/Lis_des_Pyrénées/Lis_des_Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lis_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Lis_des_Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium pyrenaicum
 Le Lis des Pyrénées Écouter (Lilium pyrenaicum) est une espèce plante herbacée pluriannuelle de la famille des Liliaceae, du genre Lilium.
-Ce lis est endémique du massif des Pyrénées[1],[2]. On le rencontre également en station isolée dans la Montagne Noire[3].
+Ce lis est endémique du massif des Pyrénées,. On le rencontre également en station isolée dans la Montagne Noire.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lis_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Lis_des_Pyrénées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Lilium pyrenaicum a été décrite par le botaniste français Antoine Gouan en 1773[4].
-Synonymie
-Lilium pomponium subsp. pyrenaicum (Gouan) K. Richter[5].
-Lilium flavum Lam[6].
-Lilium pyrenaicum f. rubrum Stoker
-Lilium pyrenaicum var. rubrum Marshall, 1929.
-Nom vernaculaire
-Lis des Pyrénées. L'appellation Lys de Pyrénées issue de l'ancien français est encore très usitée.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lilium pyrenaicum a été décrite par le botaniste français Antoine Gouan en 1773.
+</t>
         </is>
       </c>
     </row>
@@ -532,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lis_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Lis_des_Pyrénées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +555,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lilium pomponium subsp. pyrenaicum (Gouan) K. Richter.
+Lilium flavum Lam.
+Lilium pyrenaicum f. rubrum Stoker
+Lilium pyrenaicum var. rubrum Marshall, 1929.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lis_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lis_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lis des Pyrénées. L'appellation Lys de Pyrénées issue de l'ancien français est encore très usitée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lis_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lis_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 40 à 120 centimètres de haut, le bulbe est de forme arrondie, d'un diamètre maximum de 7 cm, et prend une couleur rose clair lorsqu'il est exposé à l'air. Grandes fleurs jaune vif ponctuées de taches brunes. Plante médicinale traitant les plaies, brûlures et piqures.
 Le périanthe contient 6 tépales fortement courbés. Les anthères sont longues d'environ 10 mm, elles contiennent du pollen d'une couleur orange clair, les étamines sont d'une couleur verte (voir photo ci-contre). Les nectaires sont sombres, au fur et à mesure de la floraison apparaissent 3 carpelles, les graines germent tardivement.
@@ -561,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lis_des_Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lis_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lis_des_Pyr%C3%A9n%C3%A9es</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Caractéristiques[2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : racème simple
@@ -602,41 +689,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lis_des_Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lis_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lis_des_Pyr%C3%A9n%C3%A9es</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété Lilium pyrenaicum var. rubrum Marschall n'est généralement plus acceptée à part entière. Néanmoins, ces lys se démarquent des plants typiques : Ces lys des Pyrénées ont des tépales de couleur orange-rouge tachetés de brun et poussent dans les environs de Burgos (Espagne).
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La variété Lilium pyrenaicum var. rubrum Marschall n'est généralement plus acceptée à part entière. Néanmoins, ces lys se démarquent des plants typiques : Ces lys des Pyrénées ont des tépales de couleur orange-rouge tachetés de brun et poussent dans les environs de Burgos (Espagne).
 En 1984, Victoria Ann Matthews avait proposé une révision taxinomique qui attachait des variétés et des sous-espèces à cette espèce. Des recherches récentes ont conduit à abandonner celles-ci.
 Pour Lilium pyrenaicum subsp. carniolicum (Bernh. ex W.D.J.Koch) V.A.Matthews, voir Lilium carniolicum Bernh. ex W.D.J.Koch
 Pour Lilium pyrenaicum subsp. carniolicum  var. albanicum (Griseb.) V.A.Matthews voir Lilium carniolicum subsp. albanicum (Griseb.) Hayek
 Pour Lilium pyrenaicum subsp. carniolicum  var. bosniacum (Beck) V.A.Matthews voir Lilium carniolicum subsp. bosniacum Beck.
 Pour Lilium pyrenaicum subsp. carniolicum  var. jankae (A.Kerner) V.A.Matthews voir Lilium carniolicum subsp. jankae (A.Kern.) Hayek
-Pour Lilium pyrenaicum subsp. ponticum (K.Koch) V.A.Matthews, voir Lilium carniolicum subsp. ponticum (K.Koch) P.H.Davis &amp; D.M.Hend.
-Note
-Les sous-espèces albanicum, bosniacum et jankae sont actuellement souvent placées au rang de variétés de Lilium carniolicum.
+Pour Lilium pyrenaicum subsp. ponticum (K.Koch) V.A.Matthews, voir Lilium carniolicum subsp. ponticum (K.Koch) P.H.Davis &amp; D.M.Hend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lis_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lis_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces albanicum, bosniacum et jankae sont actuellement souvent placées au rang de variétés de Lilium carniolicum.
 </t>
         </is>
       </c>
